--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP_TB_BMC_MED\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296D09-A224-42AA-9F21-F36EFAFBB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A563C-2150-44A1-BFFB-336452F7C8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>Romain</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>population</t>
   </si>
@@ -83,9 +83,6 @@
     <t>active_age_low</t>
   </si>
   <si>
-    <t>active_age_high</t>
-  </si>
-  <si>
     <t>perc_active</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>perc_cdr_smearpos</t>
   </si>
   <si>
-    <t>perc_cdr_closed_tb</t>
-  </si>
-  <si>
     <t>time_to_treatment</t>
   </si>
   <si>
@@ -215,15 +209,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>targetted_prevalence</t>
-  </si>
-  <si>
-    <t>targetted_prevalence_low</t>
-  </si>
-  <si>
-    <t>targetted_prevalence_high</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
     <t>prevalence_max</t>
   </si>
   <si>
-    <t>calibration_tolerance</t>
-  </si>
-  <si>
     <t>prop_physical_household_contact</t>
   </si>
   <si>
@@ -255,13 +237,16 @@
   </si>
   <si>
     <t>prevalence_by_age_record_time</t>
+  </si>
+  <si>
+    <t>perc_cdr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,16 +288,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -390,19 +361,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -416,37 +374,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -762,53 +714,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1"/>
-    <col min="5" max="5" width="11" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="13" customWidth="1"/>
-    <col min="8" max="14" width="8.81640625" style="1"/>
-    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="1"/>
-    <col min="18" max="19" width="9.1796875" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="11" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="10" customWidth="1"/>
+    <col min="8" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>40</v>
+      <c r="E1" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="19"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -821,297 +773,311 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="19">
         <v>4.7</v>
       </c>
       <c r="F3" s="2">
         <v>6.8</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="19"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="19"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="19"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="19"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="19"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E9" s="19">
+        <v>62.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>115</v>
+      </c>
+      <c r="C10" s="11">
+        <v>96</v>
+      </c>
+      <c r="D10" s="11">
+        <v>37</v>
+      </c>
+      <c r="E10" s="19">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11">
+        <v>157</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>53.8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>66.3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="E10" s="24">
-        <v>62.3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>54.4</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2">
-        <v>115</v>
-      </c>
-      <c r="C11" s="14">
-        <v>96</v>
-      </c>
-      <c r="D11" s="14">
-        <v>37</v>
-      </c>
-      <c r="E11" s="24">
-        <v>57</v>
-      </c>
-      <c r="F11" s="14">
-        <v>157</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2">
-        <v>20</v>
-      </c>
-      <c r="C12" s="14">
-        <v>20</v>
-      </c>
-      <c r="D12" s="14">
-        <v>20</v>
-      </c>
-      <c r="E12" s="24">
-        <v>20</v>
-      </c>
-      <c r="F12" s="14">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="19"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="19"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3">
+        <v>97</v>
+      </c>
+      <c r="E18" s="20">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3">
+        <v>87</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <v>86</v>
-      </c>
-      <c r="C19" s="3">
-        <v>91</v>
-      </c>
-      <c r="D19" s="3">
-        <v>97</v>
-      </c>
-      <c r="E19" s="25">
-        <v>87</v>
-      </c>
-      <c r="F19" s="3">
-        <v>87</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E19" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F19" s="24">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="30">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="C20" s="30">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D20" s="30">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="E20" s="30">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F20" s="30">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="20"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="20"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="20"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="20"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="20"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3">
+        <v>87</v>
+      </c>
+      <c r="E25" s="20">
+        <v>58</v>
+      </c>
+      <c r="F25" s="3">
+        <v>69</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>63</v>
@@ -1122,372 +1088,265 @@
       <c r="D26" s="3">
         <v>87</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="20">
         <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>69</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="3">
-        <v>63</v>
-      </c>
-      <c r="C27" s="3">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3">
-        <v>87</v>
-      </c>
-      <c r="E27" s="25">
-        <v>58</v>
-      </c>
-      <c r="F27" s="3">
-        <v>69</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="3">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3">
+        <v>94</v>
+      </c>
+      <c r="E28" s="20">
+        <v>91</v>
+      </c>
+      <c r="F28" s="3">
+        <v>93</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="E29" s="20"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3">
-        <v>72</v>
-      </c>
-      <c r="C29" s="3">
-        <v>85</v>
-      </c>
-      <c r="D29" s="3">
-        <v>94</v>
-      </c>
-      <c r="E29" s="25">
-        <v>91</v>
-      </c>
-      <c r="F29" s="3">
-        <v>93</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="E30" s="20"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="E31" s="20"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="E32" s="20"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="E35" s="20"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="20"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="E40" s="20"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+      <c r="E41" s="20"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="20">
+        <v>5</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+      <c r="E43" s="20"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E43" s="25">
-        <v>5</v>
-      </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="16">
-        <v>320</v>
-      </c>
-      <c r="C46" s="8">
-        <v>647</v>
-      </c>
-      <c r="D46" s="8">
-        <v>89</v>
-      </c>
-      <c r="E46" s="27">
-        <v>1159</v>
-      </c>
-      <c r="F46" s="8">
-        <v>341</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="E44" s="20"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="16">
-        <v>280</v>
-      </c>
-      <c r="C47" s="8">
-        <v>513</v>
-      </c>
-      <c r="D47" s="8">
-        <v>78</v>
-      </c>
-      <c r="E47" s="27">
-        <v>1016</v>
-      </c>
-      <c r="F47" s="8">
-        <v>285</v>
-      </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="16">
-        <v>380</v>
-      </c>
-      <c r="C48" s="8">
-        <v>797</v>
-      </c>
-      <c r="D48" s="8">
-        <v>102</v>
-      </c>
-      <c r="E48" s="27">
-        <v>1301</v>
-      </c>
-      <c r="F48" s="8">
-        <v>402</v>
-      </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="B45" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C45" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D45" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="22">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1200</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C49" s="18">
-        <v>3000</v>
-      </c>
-      <c r="D49" s="18">
-        <v>2000</v>
-      </c>
-      <c r="E49" s="28">
-        <v>4000</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1200</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-    </row>
-    <row r="50" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="20">
-        <v>70</v>
-      </c>
-      <c r="C50" s="20">
-        <v>150</v>
-      </c>
-      <c r="D50" s="18">
-        <v>50</v>
-      </c>
-      <c r="E50" s="28">
-        <v>200</v>
-      </c>
-      <c r="F50" s="18">
-        <v>100</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="B47" s="1">
         <v>2015</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C47" s="1">
         <v>2014</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D47" s="1">
         <v>2010</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E47" s="23">
         <v>2016</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F47" s="1">
         <v>2011</v>
       </c>
     </row>
@@ -1502,25 +1361,25 @@
           <x14:formula1>
             <xm:f>Dropdown!$E$1:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B44:E44 G44:O44</xm:sqref>
+          <xm:sqref>B43:E43 G43:O43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Dropdown!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B39:E39 G39:O39</xm:sqref>
+          <xm:sqref>B38:E38 G38:O38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Dropdown!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B37:E37 G37:O37 B40:E40 G40:O40</xm:sqref>
+          <xm:sqref>B36:E36 G36:O36 B39:E39 G39:O39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dropdown!$G$1:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B38:E38 G38:O38 P34:Q34 B34:O35</xm:sqref>
+          <xm:sqref>B37:E37 G37:O37 P33:Q33 B33:O34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1536,61 +1395,61 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A563C-2150-44A1-BFFB-336452F7C8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D11A3A-9984-411E-9FD4-25391D1B646A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>population</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>perc_extrapulmonary</t>
-  </si>
-  <si>
-    <t>perc_cdr_smearpos</t>
   </si>
   <si>
     <t>time_to_treatment</t>
@@ -714,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,19 +734,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -839,7 +836,7 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>115</v>
@@ -860,7 +857,7 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="14" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="16">
         <v>0.46</v>
@@ -916,7 +913,7 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="16">
         <v>0.3</v>
@@ -937,7 +934,7 @@
     </row>
     <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="16">
         <v>0.2</v>
@@ -958,7 +955,7 @@
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="16">
         <v>0.1</v>
@@ -1003,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="24">
-        <v>2.0999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="24">
         <v>2.3E-3</v>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3">
         <v>63</v>
@@ -1077,51 +1074,37 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3">
-        <v>63</v>
-      </c>
-      <c r="C26" s="3">
-        <v>35</v>
-      </c>
-      <c r="D26" s="3">
-        <v>87</v>
-      </c>
-      <c r="E26" s="20">
-        <v>58</v>
-      </c>
-      <c r="F26" s="3">
-        <v>69</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E26" s="20"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="B27" s="3">
+        <v>72</v>
+      </c>
+      <c r="C27" s="3">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3">
+        <v>94</v>
+      </c>
+      <c r="E27" s="20">
+        <v>91</v>
+      </c>
+      <c r="F27" s="3">
+        <v>93</v>
+      </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="3">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3">
-        <v>85</v>
-      </c>
-      <c r="D28" s="3">
-        <v>94</v>
-      </c>
-      <c r="E28" s="20">
-        <v>91</v>
-      </c>
-      <c r="F28" s="3">
-        <v>93</v>
-      </c>
+      <c r="E28" s="20"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1149,7 +1132,21 @@
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="B32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1177,21 +1174,7 @@
       <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E34" s="20"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1203,29 +1186,37 @@
     </row>
     <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="b">
-        <v>0</v>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="G37" s="9"/>
     </row>
@@ -1234,29 +1225,21 @@
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="E39" s="20"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1270,22 +1253,22 @@
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="B41" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="20">
+        <v>5</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E42" s="20">
-        <v>5</v>
-      </c>
+      <c r="E42" s="20"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1295,58 +1278,51 @@
       <c r="E43" s="20"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="14">
+    <row r="44" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="14">
         <v>1000</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C44" s="14">
         <v>3000</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D44" s="14">
         <v>2000</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E44" s="22">
         <v>4000</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F44" s="14">
         <v>1200</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
+      <c r="G44" s="15"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="B46" s="1">
         <v>2015</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C46" s="1">
         <v>2014</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D46" s="1">
         <v>2010</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E46" s="23">
         <v>2016</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F46" s="1">
         <v>2011</v>
       </c>
     </row>
@@ -1361,25 +1337,25 @@
           <x14:formula1>
             <xm:f>Dropdown!$E$1:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B43:E43 G43:O43</xm:sqref>
+          <xm:sqref>B42:E42 G42:O42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Dropdown!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B38:E38 G38:O38</xm:sqref>
+          <xm:sqref>B37:E37 G37:O37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Dropdown!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B36:E36 G36:O36 B39:E39 G39:O39</xm:sqref>
+          <xm:sqref>B35:E35 G35:O35 B38:E38 G38:O38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dropdown!$G$1:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B37:E37 G37:O37 P33:Q33 B33:O34</xm:sqref>
+          <xm:sqref>B36:E36 G36:O36 P32:Q32 B32:O33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1399,13 +1375,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" t="b">
         <v>1</v>
@@ -1413,13 +1389,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1427,29 +1403,29 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP_TB_BMC_MED\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D11A3A-9984-411E-9FD4-25391D1B646A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296D09-A224-42AA-9F21-F36EFAFBB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>Romain</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>population</t>
   </si>
@@ -83,6 +83,9 @@
     <t>active_age_low</t>
   </si>
   <si>
+    <t>active_age_high</t>
+  </si>
+  <si>
     <t>perc_active</t>
   </si>
   <si>
@@ -113,6 +116,12 @@
     <t>perc_extrapulmonary</t>
   </si>
   <si>
+    <t>perc_cdr_smearpos</t>
+  </si>
+  <si>
+    <t>perc_cdr_closed_tb</t>
+  </si>
+  <si>
     <t>time_to_treatment</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>none</t>
   </si>
   <si>
+    <t>targetted_prevalence</t>
+  </si>
+  <si>
+    <t>targetted_prevalence_low</t>
+  </si>
+  <si>
+    <t>targetted_prevalence_high</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -218,6 +236,9 @@
     <t>prevalence_max</t>
   </si>
   <si>
+    <t>calibration_tolerance</t>
+  </si>
+  <si>
     <t>prop_physical_household_contact</t>
   </si>
   <si>
@@ -234,16 +255,13 @@
   </si>
   <si>
     <t>prevalence_by_age_record_time</t>
-  </si>
-  <si>
-    <t>perc_cdr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +303,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,6 +390,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -371,31 +416,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -711,53 +762,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="11" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="10" customWidth="1"/>
-    <col min="8" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="37.7265625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="11" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="13" customWidth="1"/>
+    <col min="8" max="14" width="8.81640625" style="1"/>
+    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" style="1"/>
+    <col min="18" max="19" width="9.1796875" customWidth="1"/>
+    <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="24"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -770,559 +821,673 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="24">
         <v>4.7</v>
       </c>
       <c r="F3" s="2">
         <v>6.8</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="24"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="E9" s="24"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
         <v>53.8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>66.3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="24">
         <v>62.3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>54.4</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
         <v>115</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="14">
         <v>96</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="14">
         <v>37</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E11" s="24">
         <v>57</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="14">
         <v>157</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2">
         <v>20</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="14">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="14">
         <v>20</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="24">
         <v>20</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="14">
         <v>20</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="E13" s="24"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="21">
         <v>0.46</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C15" s="21">
         <v>0.46</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="21">
         <v>0.46</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="21">
         <v>0.46</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="21">
         <v>0.46</v>
       </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="21">
         <v>0.3</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C16" s="21">
         <v>0.3</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="21">
         <v>0.3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="21">
         <v>0.3</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="21">
         <v>0.3</v>
       </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21">
         <v>0.2</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="21">
         <v>0.2</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="21">
         <v>0.2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="21">
         <v>0.2</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="21">
         <v>0.2</v>
       </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="21">
         <v>0.1</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C18" s="21">
         <v>0.1</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="21">
         <v>0.1</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="21">
         <v>0.1</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="21">
         <v>0.1</v>
       </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3">
-        <v>97</v>
-      </c>
-      <c r="E18" s="20">
-        <v>87</v>
-      </c>
-      <c r="F18" s="3">
-        <v>87</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="24">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D19" s="24">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="E19" s="24">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F19" s="24">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3">
+        <v>97</v>
+      </c>
+      <c r="E19" s="25">
+        <v>87</v>
+      </c>
+      <c r="F19" s="3">
+        <v>87</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="C20" s="30">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E20" s="30">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="25"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="25"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="25"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3">
+        <v>87</v>
+      </c>
+      <c r="E26" s="25">
         <v>58</v>
       </c>
-      <c r="B25" s="3">
+      <c r="F26" s="3">
+        <v>69</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3">
         <v>63</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>35</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>87</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E27" s="25">
         <v>58</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F27" s="3">
         <v>69</v>
       </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3">
         <v>72</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>85</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>94</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E29" s="25">
         <v>91</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F29" s="3">
         <v>93</v>
       </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="25"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="25"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3">
+        <v>35</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3">
         <v>1.9</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C43" s="3">
         <v>1.5</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E43" s="25">
         <v>5</v>
       </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B46" s="16">
+        <v>320</v>
+      </c>
+      <c r="C46" s="8">
+        <v>647</v>
+      </c>
+      <c r="D46" s="8">
+        <v>89</v>
+      </c>
+      <c r="E46" s="27">
+        <v>1159</v>
+      </c>
+      <c r="F46" s="8">
+        <v>341</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="16">
+        <v>280</v>
+      </c>
+      <c r="C47" s="8">
+        <v>513</v>
+      </c>
+      <c r="D47" s="8">
+        <v>78</v>
+      </c>
+      <c r="E47" s="27">
+        <v>1016</v>
+      </c>
+      <c r="F47" s="8">
+        <v>285</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="16">
+        <v>380</v>
+      </c>
+      <c r="C48" s="8">
+        <v>797</v>
+      </c>
+      <c r="D48" s="8">
+        <v>102</v>
+      </c>
+      <c r="E48" s="27">
+        <v>1301</v>
+      </c>
+      <c r="F48" s="8">
+        <v>402</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="18">
         <v>1000</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C49" s="18">
         <v>3000</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D49" s="18">
         <v>2000</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E49" s="28">
         <v>4000</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F49" s="18">
         <v>1200</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="G49" s="19"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+    </row>
+    <row r="50" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="20">
+        <v>70</v>
+      </c>
+      <c r="C50" s="20">
+        <v>150</v>
+      </c>
+      <c r="D50" s="18">
+        <v>50</v>
+      </c>
+      <c r="E50" s="28">
+        <v>200</v>
+      </c>
+      <c r="F50" s="18">
+        <v>100</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
         <v>2015</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C52" s="1">
         <v>2014</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D52" s="1">
         <v>2010</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E52" s="29">
         <v>2016</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F52" s="1">
         <v>2011</v>
       </c>
     </row>
@@ -1337,25 +1502,25 @@
           <x14:formula1>
             <xm:f>Dropdown!$E$1:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B42:E42 G42:O42</xm:sqref>
+          <xm:sqref>B44:E44 G44:O44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Dropdown!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B37:E37 G37:O37</xm:sqref>
+          <xm:sqref>B39:E39 G39:O39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Dropdown!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B35:E35 G35:O35 B38:E38 G38:O38</xm:sqref>
+          <xm:sqref>B37:E37 G37:O37 B40:E40 G40:O40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dropdown!$G$1:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B36:E36 G36:O36 P32:Q32 B32:O33</xm:sqref>
+          <xm:sqref>B38:E38 G38:O38 P34:Q34 B34:O35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1371,61 +1536,61 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP_TB_BMC_MED\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296D09-A224-42AA-9F21-F36EFAFBB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC63D0A-F076-499F-8EFD-94A445C6D8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>population</t>
   </si>
@@ -213,15 +213,6 @@
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t>targetted_prevalence</t>
-  </si>
-  <si>
-    <t>targetted_prevalence_low</t>
-  </si>
-  <si>
-    <t>targetted_prevalence_high</t>
   </si>
   <si>
     <t>Pakistan</t>
@@ -261,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,16 +294,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,36 +393,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -762,28 +734,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1"/>
-    <col min="5" max="5" width="11" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="13" customWidth="1"/>
-    <col min="8" max="14" width="8.81640625" style="1"/>
-    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="1"/>
-    <col min="18" max="19" width="9.1796875" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="11" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="10" customWidth="1"/>
+    <col min="8" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -793,22 +765,22 @@
       <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="20"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -821,57 +793,57 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>4.7</v>
       </c>
       <c r="F3" s="2">
         <v>6.8</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="20"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="20"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="20"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="20"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="20"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="20"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -884,155 +856,155 @@
       <c r="D10" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>62.3</v>
       </c>
       <c r="F10" s="2">
         <v>54.4</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2">
         <v>115</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>96</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>37</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>57</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>157</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2">
         <v>20</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>20</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>20</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>20</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>20</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="20"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="E14" s="20"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.46</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>0.1</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>0.1</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>0.1</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>0.1</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="17">
         <v>0.1</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1045,71 +1017,71 @@
       <c r="D19" s="3">
         <v>97</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="21">
         <v>87</v>
       </c>
       <c r="F19" s="3">
         <v>87</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="25">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="25">
         <v>2.3E-3</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="25">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="25">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="21"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="21"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="21"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="21"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="21"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -1122,15 +1094,15 @@
       <c r="D26" s="3">
         <v>87</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="21">
         <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>69</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -1143,22 +1115,22 @@
       <c r="D27" s="3">
         <v>87</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="21">
         <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>69</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="21"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1171,43 +1143,43 @@
       <c r="D29" s="3">
         <v>94</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="21">
         <v>91</v>
       </c>
       <c r="F29" s="3">
         <v>93</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="21"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="21"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="21"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="21"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
@@ -1220,15 +1192,15 @@
       <c r="D34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="25" t="b">
+      <c r="E34" s="21" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -1241,50 +1213,50 @@
       <c r="D35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="25" t="b">
+      <c r="E35" s="21" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="21"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="21"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="15" t="b">
+      <c r="B38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="26" t="b">
+      <c r="E38" s="22" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -1294,12 +1266,12 @@
       <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -1309,26 +1281,26 @@
       <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="21"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="21"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -1338,156 +1310,93 @@
       <c r="C43" s="3">
         <v>1.5</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="21">
         <v>5</v>
       </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="21"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="16">
-        <v>320</v>
-      </c>
-      <c r="C46" s="8">
-        <v>647</v>
-      </c>
-      <c r="D46" s="8">
-        <v>89</v>
-      </c>
-      <c r="E46" s="27">
-        <v>1159</v>
-      </c>
-      <c r="F46" s="8">
-        <v>341</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>52</v>
+      <c r="E45" s="21"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D46" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="23">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1200</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+    </row>
+    <row r="47" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>280</v>
-      </c>
-      <c r="C47" s="8">
-        <v>513</v>
-      </c>
-      <c r="D47" s="8">
-        <v>78</v>
-      </c>
-      <c r="E47" s="27">
-        <v>1016</v>
-      </c>
-      <c r="F47" s="8">
-        <v>285</v>
-      </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="16">
-        <v>380</v>
-      </c>
-      <c r="C48" s="8">
-        <v>797</v>
-      </c>
-      <c r="D48" s="8">
-        <v>102</v>
-      </c>
-      <c r="E48" s="27">
-        <v>1301</v>
-      </c>
-      <c r="F48" s="8">
-        <v>402</v>
-      </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C49" s="18">
-        <v>3000</v>
-      </c>
-      <c r="D49" s="18">
-        <v>2000</v>
-      </c>
-      <c r="E49" s="28">
-        <v>4000</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1200</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-    </row>
-    <row r="50" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="20">
         <v>70</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C47" s="16">
         <v>150</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D47" s="14">
         <v>50</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E47" s="23">
         <v>200</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F47" s="14">
         <v>100</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="G47" s="15"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
         <v>2015</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C49" s="1">
         <v>2014</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D49" s="1">
         <v>2010</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E49" s="24">
         <v>2016</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F49" s="1">
         <v>2011</v>
       </c>
     </row>
@@ -1536,9 +1445,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1552,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1566,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1577,7 +1486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1585,7 +1494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC63D0A-F076-499F-8EFD-94A445C6D8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A5457-0306-4A3A-AB9B-1CED7B9584BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>population</t>
   </si>
@@ -224,12 +224,6 @@
     <t>n_colleagues</t>
   </si>
   <si>
-    <t>prevalence_max</t>
-  </si>
-  <si>
-    <t>calibration_tolerance</t>
-  </si>
-  <si>
     <t>prop_physical_household_contact</t>
   </si>
   <si>
@@ -246,6 +240,15 @@
   </si>
   <si>
     <t>prevalence_by_age_record_time</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,18 +319,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -367,19 +364,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -393,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -407,18 +391,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -734,18 +712,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
     <col min="2" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="11" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11" style="18" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="10" customWidth="1"/>
     <col min="8" max="14" width="8.85546875" style="1"/>
@@ -755,7 +733,7 @@
     <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -765,22 +743,30 @@
       <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="15"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -793,57 +779,65 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>4.7</v>
       </c>
       <c r="F3" s="2">
         <v>6.8</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="15"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="15"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="15"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -856,15 +850,23 @@
       <c r="D10" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>62.3</v>
       </c>
       <c r="F10" s="2">
         <v>54.4</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="8">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -877,7 +879,7 @@
       <c r="D11" s="11">
         <v>37</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>57</v>
       </c>
       <c r="F11" s="11">
@@ -885,126 +887,147 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11">
-        <v>20</v>
-      </c>
-      <c r="E12" s="20">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11">
-        <v>20</v>
-      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="15"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="15"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.46</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="B17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>0.1</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>0.1</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>0.1</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>0.1</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>0.1</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1040,7 @@
       <c r="D19" s="3">
         <v>97</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="16">
         <v>87</v>
       </c>
       <c r="F19" s="3">
@@ -1025,63 +1048,48 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="25">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="C20" s="25">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D20" s="25">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="E20" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F20" s="25">
-        <v>2.0999999999999999E-3</v>
-      </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="16"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="16"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="16"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="16"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="16"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -1094,7 +1102,7 @@
       <c r="D26" s="3">
         <v>87</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="16">
         <v>58</v>
       </c>
       <c r="F26" s="3">
@@ -1102,7 +1110,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1123,7 @@
       <c r="D27" s="3">
         <v>87</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="16">
         <v>58</v>
       </c>
       <c r="F27" s="3">
@@ -1123,14 +1131,14 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="16"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1151,7 @@
       <c r="D29" s="3">
         <v>94</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="16">
         <v>91</v>
       </c>
       <c r="F29" s="3">
@@ -1151,35 +1159,35 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="16"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="16"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="16"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="16"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
@@ -1192,15 +1200,23 @@
       <c r="D34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="21" t="b">
+      <c r="E34" s="16" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -1213,29 +1229,35 @@
       <c r="D35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="21" t="b">
+      <c r="E35" s="16" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
@@ -1248,15 +1270,23 @@
       <c r="D38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="22" t="b">
+      <c r="E38" s="17" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -1266,12 +1296,12 @@
       <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -1281,26 +1311,26 @@
       <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="21"/>
+      <c r="E41" s="16"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="21"/>
+      <c r="E42" s="16"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -1310,93 +1340,47 @@
       <c r="C43" s="3">
         <v>1.5</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="16">
         <v>5</v>
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="21"/>
+      <c r="E44" s="16"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="16"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C46" s="14">
-        <v>3000</v>
-      </c>
-      <c r="D46" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E46" s="23">
-        <v>4000</v>
-      </c>
-      <c r="F46" s="14">
-        <v>1200</v>
-      </c>
-      <c r="G46" s="15"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-    </row>
-    <row r="47" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="16">
-        <v>70</v>
-      </c>
-      <c r="C47" s="16">
-        <v>150</v>
-      </c>
-      <c r="D47" s="14">
-        <v>50</v>
-      </c>
-      <c r="E47" s="23">
-        <v>200</v>
-      </c>
-      <c r="F47" s="14">
-        <v>100</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
         <v>2015</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C47" s="1">
         <v>2014</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D47" s="1">
         <v>2010</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E47" s="18">
         <v>2016</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F47" s="1">
         <v>2011</v>
       </c>
     </row>
@@ -1423,13 +1407,13 @@
           <x14:formula1>
             <xm:f>Dropdown!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B37:E37 G37:O37 B40:E40 G40:O40</xm:sqref>
+          <xm:sqref>B37:E37 G40:O40 B40:E40 J37:O37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dropdown!$G$1:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B38:E38 G38:O38 P34:Q34 B34:O35</xm:sqref>
+          <xm:sqref>B38:E38 P34:Q34 B34:O35 J38:O38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A5457-0306-4A3A-AB9B-1CED7B9584BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320175D-1AF8-4AF1-B1BD-40D1429A8570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320175D-1AF8-4AF1-B1BD-40D1429A8570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65816D-0401-48DB-AC78-A73BA80D62B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,8 +715,8 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,6 +1382,15 @@
       </c>
       <c r="F47" s="1">
         <v>2011</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2010</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/country_parameters.xlsx
+++ b/spreadsheets/country_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB_new\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP_TB_BMC_MED\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65816D-0401-48DB-AC78-A73BA80D62B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296D09-A224-42AA-9F21-F36EFAFBB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>population</t>
   </si>
@@ -215,6 +215,15 @@
     <t>none</t>
   </si>
   <si>
+    <t>targetted_prevalence</t>
+  </si>
+  <si>
+    <t>targetted_prevalence_low</t>
+  </si>
+  <si>
+    <t>targetted_prevalence_high</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -224,6 +233,12 @@
     <t>n_colleagues</t>
   </si>
   <si>
+    <t>prevalence_max</t>
+  </si>
+  <si>
+    <t>calibration_tolerance</t>
+  </si>
+  <si>
     <t>prop_physical_household_contact</t>
   </si>
   <si>
@@ -240,22 +255,13 @@
   </si>
   <si>
     <t>prevalence_by_age_record_time</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +303,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,7 +327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -364,6 +390,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -377,26 +416,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -712,28 +762,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="11" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="10" customWidth="1"/>
-    <col min="8" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="37.7265625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="11" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="13" customWidth="1"/>
+    <col min="8" max="14" width="8.81640625" style="1"/>
+    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" style="1"/>
+    <col min="18" max="19" width="9.1796875" customWidth="1"/>
+    <col min="20" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
@@ -743,30 +793,22 @@
       <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="24"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -779,65 +821,57 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="24">
         <v>4.7</v>
       </c>
       <c r="F3" s="2">
         <v>6.8</v>
       </c>
-      <c r="G3" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="24"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="24"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -850,184 +884,155 @@
       <c r="D10" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="24">
         <v>62.3</v>
       </c>
       <c r="F10" s="2">
         <v>54.4</v>
       </c>
-      <c r="G10" s="8">
-        <v>67</v>
-      </c>
-      <c r="H10" s="2">
-        <v>60</v>
-      </c>
-      <c r="I10" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2">
         <v>115</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="14">
         <v>96</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="14">
         <v>37</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="24">
         <v>57</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <v>157</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20</v>
+      </c>
+      <c r="E12" s="24">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="24"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="E14" s="24"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="21">
         <v>0.46</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="21">
         <v>0.46</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="21">
         <v>0.46</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="21">
         <v>0.46</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="21">
         <v>0.46</v>
       </c>
-      <c r="G15" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="21">
         <v>0.3</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="21">
         <v>0.3</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="21">
         <v>0.3</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="21">
         <v>0.3</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="21">
         <v>0.3</v>
       </c>
-      <c r="G16" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21">
         <v>0.2</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="21">
         <v>0.2</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="21">
         <v>0.2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="21">
         <v>0.2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="21">
         <v>0.2</v>
       </c>
-      <c r="G17" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="21">
         <v>0.1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="21">
         <v>0.1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="21">
         <v>0.1</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="21">
         <v>0.1</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="21">
         <v>0.1</v>
       </c>
-      <c r="G18" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1040,56 +1045,71 @@
       <c r="D19" s="3">
         <v>97</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="25">
         <v>87</v>
       </c>
       <c r="F19" s="3">
         <v>87</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="C20" s="30">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E20" s="30">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="25"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="25"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="25"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="25"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -1102,15 +1122,15 @@
       <c r="D26" s="3">
         <v>87</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="25">
         <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>69</v>
       </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -1123,22 +1143,22 @@
       <c r="D27" s="3">
         <v>87</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="25">
         <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>69</v>
       </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="25"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1151,43 +1171,43 @@
       <c r="D29" s="3">
         <v>94</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="25">
         <v>91</v>
       </c>
       <c r="F29" s="3">
         <v>93</v>
       </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="25"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="25"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="25"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="25"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
@@ -1200,23 +1220,15 @@
       <c r="D34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="16" t="b">
+      <c r="E34" s="25" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -1229,64 +1241,50 @@
       <c r="D35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="16" t="b">
+      <c r="E35" s="25" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="25"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="25"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12" t="b">
+      <c r="B38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="15" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="17" t="b">
+      <c r="E38" s="26" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -1296,12 +1294,12 @@
       <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
@@ -1311,26 +1309,26 @@
       <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="25"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="25"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -1340,57 +1338,157 @@
       <c r="C43" s="3">
         <v>1.5</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="25">
         <v>5</v>
       </c>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="25"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="E45" s="25"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="16">
+        <v>320</v>
+      </c>
+      <c r="C46" s="8">
+        <v>647</v>
+      </c>
+      <c r="D46" s="8">
+        <v>89</v>
+      </c>
+      <c r="E46" s="27">
+        <v>1159</v>
+      </c>
+      <c r="F46" s="8">
+        <v>341</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="16">
+        <v>280</v>
+      </c>
+      <c r="C47" s="8">
+        <v>513</v>
+      </c>
+      <c r="D47" s="8">
+        <v>78</v>
+      </c>
+      <c r="E47" s="27">
+        <v>1016</v>
+      </c>
+      <c r="F47" s="8">
+        <v>285</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="16">
+        <v>380</v>
+      </c>
+      <c r="C48" s="8">
+        <v>797</v>
+      </c>
+      <c r="D48" s="8">
+        <v>102</v>
+      </c>
+      <c r="E48" s="27">
+        <v>1301</v>
+      </c>
+      <c r="F48" s="8">
+        <v>402</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="28">
+        <v>4000</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1200</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+    </row>
+    <row r="50" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="B50" s="20">
+        <v>70</v>
+      </c>
+      <c r="C50" s="20">
+        <v>150</v>
+      </c>
+      <c r="D50" s="18">
+        <v>50</v>
+      </c>
+      <c r="E50" s="28">
+        <v>200</v>
+      </c>
+      <c r="F50" s="18">
+        <v>100</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
         <v>2015</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C52" s="1">
         <v>2014</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D52" s="1">
         <v>2010</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E52" s="29">
         <v>2016</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F52" s="1">
         <v>2011</v>
-      </c>
-      <c r="G47" s="10">
-        <v>2010</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I47" s="1">
-        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -1416,13 +1514,13 @@
           <x14:formula1>
             <xm:f>Dropdown!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B37:E37 G40:O40 B40:E40 J37:O37</xm:sqref>
+          <xm:sqref>B37:E37 G37:O37 B40:E40 G40:O40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dropdown!$G$1:$G$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B38:E38 P34:Q34 B34:O35 J38:O38</xm:sqref>
+          <xm:sqref>B38:E38 G38:O38 P34:Q34 B34:O35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1438,9 +1536,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1468,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1487,7 +1585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
